--- a/docs/questions_template.xlsx
+++ b/docs/questions_template.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,22 +559,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>以下哪个是JavaScript中的闭包？</t>
+          <t>以下哪个不是Python中的循环结构？</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{"A":"一个函数返回另一个函数","B":"一个函数调用自身","C":"一个函数接收另一个函数作为参数","D":"一个函数没有参数"}</t>
+          <t>{"A":"for","B":"while","C":"do-while","D":"都不是"}</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>闭包是指有权访问另一个函数作用域中变量的函数，通常是一个函数返回另一个函数</t>
+          <t>Python中没有do-while循环结构</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,22 +596,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>以下哪些是JavaScript中的基本数据类型？</t>
+          <t>以下哪些是Python中的内置函数？</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{"A":"String","B":"Number","C":"Object","D":"Boolean"}</t>
+          <t>{"A":"print()","B":"len()","C":"range()","D":"sort()"}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ABD</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>JavaScript中的基本数据类型包括String、Number、Boolean、Null、Undefined、Symbol、BigInt，Object是引用类型</t>
+          <t>print()、len()、range()都是Python中的内置函数，sort()是列表的方法</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,12 +633,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>在HTTP协议中，以下哪个状态码表示请求成功？</t>
+          <t>Python中，以下哪个符号用于单行注释？</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{"A":"404","B":"500","C":"200","D":"403"}</t>
+          <t>{"A":"/*","B":"//","C":"#","D":"--"}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>HTTP 200状态码表示请求成功，404表示资源未找到，500表示服务器内部错误，403表示禁止访问</t>
+          <t>Python中使用#符号进行单行注释</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RESTful API中，GET请求可以修改服务器端资源。</t>
+          <t>Python是一种解释型语言。</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -680,12 +680,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>RESTful API中，GET请求应该是幂等的，不应该修改服务器端资源</t>
+          <t>Python是一种解释型语言，不需要编译成机器码</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -707,12 +707,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>以下哪个设计模式属于创建型模式？</t>
+          <t>以下哪个是Python中的条件判断语句？</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{"A":"单例模式","B":"适配器模式","C":"观察者模式","D":"策略模式"}</t>
+          <t>{"A":"if-else","B":"switch-case","C":"select-case","D":"以上都不是"}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>单例模式属于创建型模式，适配器模式属于结构型模式，观察者模式和策略模式属于行为型模式</t>
+          <t>Python中使用if-else进行条件判断，没有switch-case语句</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -744,12 +744,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>以下哪些是SOLID原则的内容？</t>
+          <t>以下哪些是Python中的数据结构？</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{"A":"单一职责原则","B":"开放封闭原则","C":"里氏替换原则","D":"依赖倒置原则"}</t>
+          <t>{"A":"列表","B":"元组","C":"字典","D":"集合"}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -759,14 +759,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>SOLID原则包括：单一职责原则(S)、开放封闭原则(O)、里氏替换原则(L)、接口隔离原则(I)、依赖倒置原则(D)</t>
+          <t>Python中的数据结构包括列表、元组、字典和集合</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>entry</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -781,29 +781,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>以下哪个排序算法的时间复杂度在最坏情况下是O(n^2)？</t>
+          <t>Python中，以下哪个方法用于将字符串转换为整数？</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{"A":"快速排序","B":"归并排序","C":"堆排序","D":"基数排序"}</t>
+          <t>{"A":"str()","B":"int()","C":"float()","D":"bool()"}</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>快速排序在最坏情况下的时间复杂度是O(n^2)，归并排序和堆排序是O(nlogn)，基数排序是O(nk)</t>
+          <t>Python中使用int()函数将字符串转换为整数</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>entry</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -813,34 +813,34 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>multiple</t>
+          <t>judge</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>以下哪些算法可以用于查找最短路径？</t>
+          <t>Python中的变量不需要声明类型。</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{"A":"Dijkstra算法","B":"Floyd-Warshall算法","C":"Prim算法","D":"Kruskal算法"}</t>
+          <t>{"A":"正确","B":"错误"}</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dijkstra算法和Floyd-Warshall算法可以用于查找最短路径，Prim算法和Kruskal算法用于最小生成树</t>
+          <t>Python是动态类型语言，变量不需要声明类型</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>entry</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -855,12 +855,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>在Java中，以下哪个关键字用于创建对象？</t>
+          <t>以下哪个是JavaScript中的闭包？</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{"A":"new","B":"create","C":"make","D":"instance"}</t>
+          <t>{"A":"一个函数返回另一个函数","B":"一个函数调用自身","C":"一个函数接收另一个函数作为参数","D":"一个函数没有参数"}</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -870,14 +870,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>在Java中，使用new关键字创建对象</t>
+          <t>闭包是指有权访问另一个函数作用域中变量的函数，通常是一个函数返回另一个函数</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>entry</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -887,39 +887,39 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>judge</t>
+          <t>multiple</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Java中的String类是可变的。</t>
+          <t>以下哪些是JavaScript中的基本数据类型？</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{"A":"正确","B":"错误"}</t>
+          <t>{"A":"String","B":"Number","C":"Object","D":"Boolean"}</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>ABD</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Java中的String类是不可变的，每次修改都会创建新的String对象</t>
+          <t>JavaScript中的基本数据类型包括String、Number、Boolean、Null、Undefined、Symbol、BigInt，Object是引用类型</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>entry</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -929,71 +929,71 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>以下哪个是SQL中的聚合函数？</t>
+          <t>JavaScript中，以下哪个符号用于声明变量？</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{"A":"SELECT","B":"FROM","C":"SUM","D":"WHERE"}</t>
+          <t>{"A":"var","B":"let","C":"const","D":"以上都是"}</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>SUM是SQL中的聚合函数，用于计算总和，其他选项都是SQL语句的关键字</t>
+          <t>JavaScript中可以使用var、let、const声明变量</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>entry</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>multiple</t>
+          <t>judge</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>以下哪些是SQL中的约束？</t>
+          <t>JavaScript是一种面向对象的编程语言。</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{"A":"PRIMARY KEY","B":"FOREIGN KEY","C":"UNIQUE","D":"NOT NULL"}</t>
+          <t>{"A":"正确","B":"错误"}</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ABCD</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>这些都是SQL中的约束，用于保证数据的完整性和一致性</t>
+          <t>JavaScript是一种基于原型的面向对象编程语言</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>entry</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1003,71 +1003,71 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>以下哪个设计模式用于处理对象间的一对多依赖关系？</t>
+          <t>JavaScript中，以下哪个方法用于添加事件监听器？</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{"A":"单例模式","B":"观察者模式","C":"工厂模式","D":"装饰器模式"}</t>
+          <t>{"A":"addEventListener()","B":"on()","C":"bind()","D":"attachEvent()"}</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>观察者模式用于处理对象间的一对多依赖关系，当一个对象状态改变时，所有依赖它的对象都会得到通知</t>
+          <t>现代JavaScript中使用addEventListener()添加事件监听器</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>entry</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>judge</t>
+          <t>multiple</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>装饰器模式允许在不修改原有对象结构的情况下，动态地给对象添加额外的责任。</t>
+          <t>以下哪些是JavaScript中的循环结构？</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>{"A":"正确","B":"错误"}</t>
+          <t>{"A":"for","B":"while","C":"do-while","D":"for-in"}</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>ABCD</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>装饰器模式的核心思想就是在不修改原有对象结构的情况下，动态地给对象添加额外的责任</t>
+          <t>JavaScript中的循环结构包括for、while、do-while和for-in</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pro</t>
+          <t>entry</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1077,66 +1077,66 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>以下哪个算法用于解决0-1背包问题？</t>
+          <t>JavaScript中，以下哪个方法用于创建数组？</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>{"A":"贪心算法","B":"动态规划","C":"回溯算法","D":"分支限界算法"}</t>
+          <t>{"A":"new Array()","B":"[]","C":"Array()","D":"以上都是"}</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0-1背包问题通常使用动态规划算法解决，贪心算法不能得到最优解</t>
+          <t>JavaScript中可以使用new Array()、[]或Array()创建数组</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pro</t>
+          <t>entry</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>multiple</t>
+          <t>judge</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>以下哪些是NP完全问题？</t>
+          <t>JavaScript中的对象是键值对的集合。</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>{"A":"旅行商问题","B":"背包问题","C":"排序问题","D":"图的着色问题"}</t>
+          <t>{"A":"正确","B":"错误"}</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ABD</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>旅行商问题、背包问题、图的着色问题都是NP完全问题，排序问题是P问题</t>
+          <t>JavaScript中的对象是键值对的集合</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>pro</t>
+          <t>entry</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1151,29 +1151,29 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>在C++中，以下哪个关键字用于定义常量？</t>
+          <t>JavaScript中，以下哪个方法用于字符串拼接？</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>{"A":"const","B":"static","C":"final","D":"immutable"}</t>
+          <t>{"A":"+","B":"concat()","C":"join()","D":"以上都是"}</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>在C++中，使用const关键字定义常量</t>
+          <t>JavaScript中可以使用+运算符、concat()方法或join()方法进行字符串拼接</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>pro</t>
+          <t>entry</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1183,34 +1183,34 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>judge</t>
+          <t>multiple</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>C++中的虚函数是通过虚函数表实现的。</t>
+          <t>以下哪些是JavaScript中的DOM操作方法？</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>{"A":"正确","B":"错误"}</t>
+          <t>{"A":"getElementById()","B":"querySelector()","C":"createElement()","D":"appendChild()"}</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>ABCD</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C++中的虚函数是通过虚函数表(vtable)实现的，每个包含虚函数的类都有一个虚函数表</t>
+          <t>这些都是JavaScript中的DOM操作方法</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>pro</t>
+          <t>entry</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1225,12 +1225,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>以下哪个是NoSQL数据库？</t>
+          <t>在HTTP协议中，以下哪个状态码表示请求成功？</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>{"A":"MySQL","B":"PostgreSQL","C":"MongoDB","D":"Oracle"}</t>
+          <t>{"A":"404","B":"500","C":"200","D":"403"}</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1240,14 +1240,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>MongoDB是NoSQL数据库，其他选项都是关系型数据库</t>
+          <t>HTTP 200状态码表示请求成功，404表示资源未找到，500表示服务器内部错误，403表示禁止访问</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>pro</t>
+          <t>entry</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1257,39 +1257,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>multiple</t>
+          <t>judge</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>以下哪些是分布式系统的特性？</t>
+          <t>RESTful API中，GET请求可以修改服务器端资源。</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>{"A":"一致性","B":"可用性","C":"分区容错性","D":"原子性"}</t>
+          <t>{"A":"正确","B":"错误"}</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>分布式系统的CAP理论包括一致性(Consistency)、可用性(Availability)、分区容错性(Partition tolerance)</t>
+          <t>RESTful API中，GET请求应该是幂等的，不应该修改服务器端资源</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pro</t>
+          <t>entry</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1299,48 +1299,2749 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>以下哪个架构模式是基于服务的架构？</t>
+          <t>以下哪个是HTTP协议中的请求方法？</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>{"A":"MVC","B":"微服务","C":"MVP","D":"MVVM"}</t>
+          <t>{"A":"GET","B":"POST","C":"PUT","D":"以上都是"}</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>微服务是基于服务的架构，将应用拆分为多个独立的服务</t>
+          <t>GET、POST、PUT都是HTTP协议中的请求方法</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>entry</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>以下哪些是HTTP协议中的常见头部字段？</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>{"A":"Content-Type","B":"Authorization","C":"Cache-Control","D":"User-Agent"}</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>这些都是HTTP协议中的常见头部字段</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>entry</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>在RESTful API中，以下哪个方法用于创建资源？</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>{"A":"GET","B":"POST","C":"PUT","D":"DELETE"}</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>RESTful API中，POST方法用于创建资源</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>entry</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>judge</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>HTTPS是HTTP的安全版本，使用SSL/TLS加密。</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>{"A":"正确","B":"错误"}</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>HTTPS是HTTP的安全版本，使用SSL/TLS进行加密</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>entry</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>以下哪个是HTTP协议的默认端口？</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>{"A":"80","B":"443","C":"8080","D":"3306"}</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>HTTP协议的默认端口是80，HTTPS的默认端口是443</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>entry</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>以下哪些是RESTful API的设计原则？</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>{"A":"资源标识","B":"统一接口","C":"无状态","D":"缓存"}</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>这些都是RESTful API的设计原则</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>entry</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>在HTTP协议中，以下哪个状态码表示资源未找到？</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>{"A":"200","B":"404","C":"500","D":"403"}</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>HTTP 404状态码表示资源未找到</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>entry</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>judge</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>RESTful API中，URL应该包含动词。</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>{"A":"正确","B":"错误"}</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>RESTful API中，URL应该包含名词（资源），而不是动词</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>entry</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>以下哪个设计模式属于创建型模式？</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>{"A":"单例模式","B":"适配器模式","C":"观察者模式","D":"策略模式"}</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>单例模式属于创建型模式，适配器模式属于结构型模式，观察者模式和策略模式属于行为型模式</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>entry</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>以下哪些是SOLID原则的内容？</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>{"A":"单一职责原则","B":"开放封闭原则","C":"里氏替换原则","D":"依赖倒置原则"}</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>SOLID原则包括：单一职责原则(S)、开放封闭原则(O)、里氏替换原则(L)、接口隔离原则(I)、依赖倒置原则(D)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>entry</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>以下哪个设计模式属于结构型模式？</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>{"A":"工厂模式","B":"适配器模式","C":"观察者模式","D":"命令模式"}</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>适配器模式属于结构型模式，工厂模式属于创建型模式，观察者模式和命令模式属于行为型模式</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>entry</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>judge</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>单例模式确保一个类只有一个实例。</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>{"A":"正确","B":"错误"}</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>单例模式的目的是确保一个类只有一个实例</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>entry</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>以下哪个设计模式属于行为型模式？</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>{"A":"单例模式","B":"装饰器模式","C":"观察者模式","D":"工厂模式"}</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>观察者模式属于行为型模式，单例模式和工厂模式属于创建型模式，装饰器模式属于结构型模式</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>entry</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>以下哪些是创建型设计模式？</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>{"A":"单例模式","B":"工厂模式","C":"抽象工厂模式","D":"建造者模式"}</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>这些都属于创建型设计模式</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>entry</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>以下哪个设计模式用于将一个类的接口转换成客户端所期望的另一个接口？</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>{"A":"适配器模式","B":"装饰器模式","C":"观察者模式","D":"策略模式"}</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>适配器模式用于将一个类的接口转换成客户端所期望的另一个接口</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>entry</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>judge</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>装饰器模式允许在不修改原有对象结构的情况下，动态地给对象添加额外的责任。</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>{"A":"正确","B":"错误"}</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>装饰器模式的核心思想就是在不修改原有对象结构的情况下，动态地给对象添加额外的责任</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>entry</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>以下哪个设计模式用于定义对象间的一种一对多的依赖关系，当一个对象状态发生变化时，所有依赖于它的对象都得到通知并被自动更新？</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>{"A":"适配器模式","B":"装饰器模式","C":"观察者模式","D":"策略模式"}</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>观察者模式用于定义对象间的一种一对多的依赖关系</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>entry</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>以下哪些是行为型设计模式？</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>{"A":"观察者模式","B":"策略模式","C":"命令模式","D":"迭代器模式"}</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>这些都属于行为型设计模式</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>以下哪个排序算法的时间复杂度在最坏情况下是O(n^2)？</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>{"A":"快速排序","B":"归并排序","C":"堆排序","D":"基数排序"}</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>快速排序在最坏情况下的时间复杂度是O(n^2)，归并排序和堆排序是O(nlogn)，基数排序是O(nk)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>以下哪些算法可以用于查找最短路径？</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>{"A":"Dijkstra算法","B":"Floyd-Warshall算法","C":"Prim算法","D":"Kruskal算法"}</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Dijkstra算法和Floyd-Warshall算法可以用于查找最短路径，Prim算法和Kruskal算法用于最小生成树</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>以下哪个算法用于在有序数组中查找元素？</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>{"A":"线性查找","B":"二分查找","C":"哈希查找","D":"以上都不是"}</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>二分查找用于在有序数组中查找元素，时间复杂度为O(logn)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>judge</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>二分查找的时间复杂度是O(logn)。</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>{"A":"正确","B":"错误"}</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>二分查找的时间复杂度是O(logn)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>以下哪个是分治算法的例子？</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>{"A":"快速排序","B":"冒泡排序","C":"插入排序","D":"选择排序"}</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>快速排序是分治算法的例子，将大问题分解为小问题解决</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>以下哪些是动态规划的应用场景？</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>{"A":"背包问题","B":"最长公共子序列","C":"最短路径","D":"斐波那契数列"}</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>这些都是动态规划的应用场景</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>以下哪个算法用于生成最小生成树？</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>{"A":"Dijkstra算法","B":"Floyd-Warshall算法","C":"Prim算法","D":"Kruskal算法"}</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Prim算法和Kruskal算法都用于生成最小生成树</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>judge</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>快速排序是稳定的排序算法。</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>{"A":"正确","B":"错误"}</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>快速排序是不稳定的排序算法</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>以下哪个数据结构用于实现先进先出（FIFO）？</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>{"A":"栈","B":"队列","C":"链表","D":"树"}</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>队列用于实现先进先出（FIFO）</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>以下哪些数据结构可以用于实现栈？</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>{"A":"数组","B":"链表","C":"队列","D":"树"}</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>栈可以用数组或链表实现</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>在Java中，以下哪个关键字用于创建对象？</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>{"A":"new","B":"create","C":"make","D":"instance"}</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>在Java中，使用new关键字创建对象</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>judge</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Java中的String类是可变的。</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>{"A":"正确","B":"错误"}</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Java中的String类是不可变的，每次修改都会创建新的String对象</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Java中，以下哪个关键字用于继承？</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>{"A":"implements","B":"extends","C":"inherits","D":"以上都不是"}</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Java中使用extends关键字进行继承</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>以下哪些是Java中的访问修饰符？</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>{"A":"public","B":"private","C":"protected","D":"default"}</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>这些都是Java中的访问修饰符</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Java中，以下哪个接口用于实现集合的迭代？</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>{"A":"Collection","B":"List","C":"Set","D":"Iterator"}</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Iterator接口用于实现集合的迭代</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>judge</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Java是一种编译型语言。</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>{"A":"正确","B":"错误"}</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Java是一种编译型语言，需要编译成字节码</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Java中，以下哪个方法用于启动线程？</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>{"A":"run()","B":"start()","C":"begin()","D":"execute()"}</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Java中使用start()方法启动线程</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>以下哪些是Java中的异常处理关键字？</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>{"A":"try","B":"catch","C":"finally","D":"throw"}</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>这些都是Java中的异常处理关键字</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Java中，以下哪个类是所有类的父类？</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>{"A":"Object","B":"Class","C":"System","D":"Runtime"}</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Object类是Java中所有类的父类</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>judge</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Java中的接口可以有方法实现。</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>{"A":"正确","B":"错误"}</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Java 8及以上版本中，接口可以有默认方法和静态方法的实现</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>以下哪个是SQL中的聚合函数？</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>{"A":"SELECT","B":"FROM","C":"SUM","D":"WHERE"}</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>SUM是SQL中的聚合函数，用于计算总和，其他选项都是SQL语句的关键字</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>以下哪些是SQL中的约束？</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>{"A":"PRIMARY KEY","B":"FOREIGN KEY","C":"UNIQUE","D":"NOT NULL"}</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>这些都是SQL中的约束，用于保证数据的完整性和一致性</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>SQL中，以下哪个语句用于查询数据？</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>{"A":"INSERT","B":"UPDATE","C":"DELETE","D":"SELECT"}</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>SELECT语句用于查询数据</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>judge</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>SQL中的JOIN用于连接两个或多个表。</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>{"A":"正确","B":"错误"}</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>SQL中的JOIN用于连接两个或多个表</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>SQL中，以下哪个子句用于对结果集进行排序？</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>{"A":"WHERE","B":"GROUP BY","C":"ORDER BY","D":"HAVING"}</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>ORDER BY子句用于对结果集进行排序</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>以下哪些是SQL中的JOIN类型？</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>{"A":"INNER JOIN","B":"LEFT JOIN","C":"RIGHT JOIN","D":"FULL JOIN"}</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>这些都是SQL中的JOIN类型</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>SQL中，以下哪个语句用于创建表？</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>{"A":"CREATE TABLE","B":"ALTER TABLE","C":"DROP TABLE","D":"TRUNCATE TABLE"}</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>CREATE TABLE语句用于创建表</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>judge</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>SQL中的事务是原子的、一致的、隔离的和持久的（ACID）。</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>{"A":"正确","B":"错误"}</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>SQL中的事务具有ACID特性</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>SQL中，以下哪个函数用于计算平均值？</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>{"A":"SUM()","B":"AVG()","C":"COUNT()","D":"MAX()"}</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>AVG()函数用于计算平均值</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>以下哪些是数据库的范式？</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>{"A":"第一范式","B":"第二范式","C":"第三范式","D":"BC范式"}</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>这些都是数据库的范式</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>以下哪个设计模式用于处理对象间的一对多依赖关系？</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>{"A":"单例模式","B":"观察者模式","C":"工厂模式","D":"装饰器模式"}</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>观察者模式用于处理对象间的一对多依赖关系，当一个对象状态改变时，所有依赖它的对象都会得到通知</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>judge</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>装饰器模式允许在不修改原有对象结构的情况下，动态地给对象添加额外的责任。</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>{"A":"正确","B":"错误"}</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>装饰器模式的核心思想就是在不修改原有对象结构的情况下，动态地给对象添加额外的责任</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>以下哪个设计模式用于定义一系列算法，把它们封装起来，并使它们可以互相替换？</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>{"A":"策略模式","B":"模板方法模式","C":"状态模式","D":"命令模式"}</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>策略模式用于定义一系列算法，把它们封装起来，并使它们可以互相替换</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>以下哪些是结构型设计模式？</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>{"A":"适配器模式","B":"装饰器模式","C":"组合模式","D":"外观模式"}</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>这些都属于结构型设计模式</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>以下哪个设计模式用于将一个复杂对象的构建与它的表示分离？</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>{"A":"工厂模式","B":"建造者模式","C":"原型模式","D":"单例模式"}</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>建造者模式用于将一个复杂对象的构建与它的表示分离</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>judge</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>工厂方法模式定义了一个创建对象的接口，但由子类决定要实例化的类是哪一个。</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>{"A":"正确","B":"错误"}</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>工厂方法模式的定义</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>以下哪个设计模式用于为一组对象提供一个一致的接口？</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>{"A":"外观模式","B":"适配器模式","C":"桥接模式","D":"组合模式"}</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>外观模式用于为一组对象提供一个一致的接口</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>以下哪些是行为型设计模式？</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>{"A":"命令模式","B":"迭代器模式","C":"观察者模式","D":"策略模式"}</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>这些都属于行为型设计模式</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>以下哪个设计模式用于在不破坏封装性的前提下，捕获一个对象的内部状态，并在该对象之外保存这个状态？</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>{"A":"命令模式","B":"备忘录模式","C":"状态模式","D":"中介者模式"}</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>备忘录模式用于捕获一个对象的内部状态，并在该对象之外保存这个状态</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>judge</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>抽象工厂模式提供一个创建一系列相关或相互依赖对象的接口，而无需指定它们具体的类。</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>{"A":"正确","B":"错误"}</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>抽象工厂模式的定义</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
           <t>pro</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>以下哪个算法用于解决0-1背包问题？</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>{"A":"贪心算法","B":"动态规划","C":"回溯算法","D":"分支限界算法"}</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0-1背包问题通常使用动态规划算法解决，贪心算法不能得到最优解</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>以下哪些是NP完全问题？</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>{"A":"旅行商问题","B":"背包问题","C":"排序问题","D":"图的着色问题"}</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>ABD</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>旅行商问题、背包问题、图的着色问题都是NP完全问题，排序问题是P问题</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>以下哪个算法用于求解最长公共子序列问题？</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>{"A":"贪心算法","B":"动态规划","C":"分治算法","D":"回溯算法"}</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>最长公共子序列问题通常使用动态规划算法解决</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>judge</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>NP完全问题是NP问题中最难的一类。</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>{"A":"正确","B":"错误"}</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>NP完全问题是NP问题中最难的一类</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>以下哪个数据结构用于实现优先队列？</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>{"A":"栈","B":"队列","C":"堆","D":"链表"}</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>堆用于实现优先队列</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>在C++中，以下哪个关键字用于定义常量？</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>{"A":"const","B":"static","C":"final","D":"immutable"}</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>在C++中，使用const关键字定义常量</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>judge</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>C++中的虚函数是通过虚函数表实现的。</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>{"A":"正确","B":"错误"}</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>C++中的虚函数是通过虚函数表(vtable)实现的，每个包含虚函数的类都有一个虚函数表</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>C++中，以下哪个关键字用于实现多态？</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>{"A":"virtual","B":"override","C":"final","D":"abstract"}</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>C++中使用virtual关键字实现多态</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>以下哪些是C++中的智能指针？</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>{"A":"unique_ptr","B":"shared_ptr","C":"weak_ptr","D":"auto_ptr"}</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>unique_ptr、shared_ptr、weak_ptr都是C++中的智能指针</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>C++中，以下哪个运算符用于动态内存分配？</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>{"A":"malloc()","B":"new","C":"calloc()","D":"realloc()"}</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>C++中使用new运算符进行动态内存分配</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>以下哪个是NoSQL数据库？</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>{"A":"MySQL","B":"PostgreSQL","C":"MongoDB","D":"Oracle"}</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>MongoDB是NoSQL数据库，其他选项都是关系型数据库</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>以下哪些是分布式系统的特性？</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>{"A":"一致性","B":"可用性","C":"分区容错性","D":"原子性"}</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>分布式系统的CAP理论包括一致性(Consistency)、可用性(Availability)、分区容错性(Partition tolerance)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>以下哪个是CAP理论中的权衡？</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>{"A":"一致性和可用性","B":"可用性和分区容错性","C":"一致性和分区容错性","D":"以上都是"}</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>CAP理论中，只能同时满足其中两个特性</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>judge</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>NoSQL数据库通常比关系型数据库更适合处理结构化数据。</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>{"A":"正确","B":"错误"}</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>关系型数据库更适合处理结构化数据，NoSQL数据库更适合处理非结构化数据</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>以下哪个是分布式共识算法？</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>{"A":"Paxos","B":"Raft","C":"Gossip","D":"以上都是"}</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>这些都是分布式共识算法</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>以下哪个架构模式是基于服务的架构？</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>{"A":"MVC","B":"微服务","C":"MVP","D":"MVVM"}</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>微服务是基于服务的架构，将应用拆分为多个独立的服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
         <is>
           <t>subjective</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>请简述RESTful API的设计原则。</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
         <is>
           <t>1. 资源标识：使用URI标识资源
 2. 统一接口：使用标准的HTTP方法
@@ -1350,9 +4051,120 @@
 6. 按需编码：允许客户端下载并执行服务器代码（可选）</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>RESTful API的设计原则包括资源标识、统一接口、无状态、缓存、分层系统和按需编码等</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>以下哪个设计模式用于在运行时动态地给一个对象添加额外的责任？</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>{"A":"装饰器模式","B":"代理模式","C":"适配器模式","D":"桥接模式"}</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>装饰器模式用于在运行时动态地给一个对象添加额外的责任</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>以下哪些是微服务架构的特点？</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>{"A":"服务独立部署","B":"服务独立扩展","C":"服务独立开发","D":"服务间通过API通信"}</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>这些都是微服务架构的特点</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>以下哪个设计模式用于将请求封装为对象，从而使您可以用不同的请求参数化客户端？</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>{"A":"命令模式","B":"策略模式","C":"模板方法模式","D":"观察者模式"}</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>命令模式用于将请求封装为对象</t>
         </is>
       </c>
     </row>
